--- a/Analyzed_Report.xlsx
+++ b/Analyzed_Report.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment</t>
+          <t>Pos_sentiment</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_Score</t>
+          <t>Neg_sentiment</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Top_Intent</t>
+          <t>Donate_Intent</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Intent_Score</t>
+          <t>Withdrawn_Intent</t>
         </is>
       </c>
     </row>
@@ -468,19 +468,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NEGATIVE</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.998</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Website Issue</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.265</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -491,19 +495,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thank You</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.522</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -514,19 +522,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.985</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Meeting Request</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.591</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -537,19 +549,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.999</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Update Info</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.297</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -560,19 +576,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NEGATIVE</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Complaint</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.465</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -583,19 +603,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.517</v>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Donation Inquiry</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.405</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -606,19 +630,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thank You</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.674</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -629,19 +657,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NEGATIVE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Complaint</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.335</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -652,19 +684,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.999</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Donation Inquiry</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0.329</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -675,19 +711,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.989</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>General Question</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0.274</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Analyzed_Report.xlsx
+++ b/Analyzed_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Null</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Null</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -725,6 +725,141 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Please cancel my monthly donation effective immediately.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I'm done with this organization. Remove me from all mailing lists.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>After this experience, I will no longer be supporting the alumni association.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>I'm unhappy with the direction you're taking, but I'll continue my monthly donation.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Can you help me increase my donation to $100 per month?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
